--- a/Discografia casa Vincenzi.xlsx
+++ b/Discografia casa Vincenzi.xlsx
@@ -14981,7 +14981,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E177"/>
+  <dimension ref="A1:E180"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18201,9 +18201,66 @@
         </is>
       </c>
     </row>
-    <row r="178" ht="14.25" customHeight="1" s="4"/>
-    <row r="179" ht="14.25" customHeight="1" s="4"/>
-    <row r="180" ht="14.25" customHeight="1" s="4"/>
+    <row r="178" ht="14.25" customHeight="1" s="4">
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>SIMPLE MINDS</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>ONCE UPON A TIME</t>
+        </is>
+      </c>
+      <c r="D178" t="n">
+        <v>1985</v>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>POP ROCK</t>
+        </is>
+      </c>
+    </row>
+    <row r="179" ht="14.25" customHeight="1" s="4">
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>NU GENEA</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>BAR MEDITERRANEO</t>
+        </is>
+      </c>
+      <c r="D179" t="n">
+        <v>2022</v>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>JAZZ FUSION</t>
+        </is>
+      </c>
+    </row>
+    <row r="180" ht="14.25" customHeight="1" s="4">
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>NU GENEA</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>NUOVA NAPOLI</t>
+        </is>
+      </c>
+      <c r="D180" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>JAZZ FUSION</t>
+        </is>
+      </c>
+    </row>
     <row r="181" ht="14.25" customHeight="1" s="4"/>
     <row r="182" ht="14.25" customHeight="1" s="4"/>
     <row r="183" ht="14.25" customHeight="1" s="4"/>
